--- a/biology/Médecine/Centre_hospitalier_Georges-Pianta/Centre_hospitalier_Georges-Pianta.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Georges-Pianta/Centre_hospitalier_Georges-Pianta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier Georges-Pianta est un centre hospitalier situé sur la commune de Thonon-les-Bains (Haute-Savoie).
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre est inauguré en 1968, sous la présence du maire de la ville Georges Pianta, pour remplacer l'ancien hôpital du centre ville, qui n'était plus conforme.
 L'ancien hôpital est devenu un centre médico-éducatif pour les enfants handicapés mentaux jusqu'en 1999 et en 2006 le bâtiment est entièrement restauré pour un nouveau palais de justice.
